--- a/Library/SmokeSanityTestCases_MPH.xlsx
+++ b/Library/SmokeSanityTestCases_MPH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26325" yWindow="0" windowWidth="13905" windowHeight="12300"/>
+    <workbookView xWindow="28200" yWindow="0" windowWidth="13908" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -57,9 +57,6 @@
     <t>TC005</t>
   </si>
   <si>
-    <t>Pharmacy\TC003PharmacyOPDbilling.py</t>
-  </si>
-  <si>
     <t>TC006</t>
   </si>
   <si>
@@ -168,10 +165,10 @@
     <t>Env</t>
   </si>
   <si>
-    <t>SNCH</t>
-  </si>
-  <si>
     <t>MPH</t>
+  </si>
+  <si>
+    <t>Dispensary\TC001CreateDispensarySale.py</t>
   </si>
 </sst>
 </file>
@@ -543,19 +540,19 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -575,18 +572,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -600,15 +597,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -622,15 +619,15 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -644,15 +641,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -666,15 +663,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -683,20 +680,20 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -705,267 +702,267 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Library/SmokeSanityTestCases_MPH.xlsx
+++ b/Library/SmokeSanityTestCases_MPH.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_DE7E51A471D9A86F89DFA8CE95974150FDC1B162" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEDA0B59-4F39-4861-AC5E-FDDB198EE0D6}"/>
   <bookViews>
-    <workbookView xWindow="28200" yWindow="0" windowWidth="13908" windowHeight="12300"/>
+    <workbookView xWindow="28200" yWindow="0" windowWidth="13908" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -51,9 +63,6 @@
     <t>TC004</t>
   </si>
   <si>
-    <t>Radiology\TC001GenerateUSGReport.py</t>
-  </si>
-  <si>
     <t>TC005</t>
   </si>
   <si>
@@ -66,9 +75,6 @@
     <t>ADT\TC011AdmissionDischargeTransferNoDeposit.py</t>
   </si>
   <si>
-    <t>Nursing\TC001WardBilling&amp;AddVitals.py</t>
-  </si>
-  <si>
     <t>Appointment\TC002CreateAppointmentFollowup.py</t>
   </si>
   <si>
@@ -114,9 +120,6 @@
     <t>Manual Status</t>
   </si>
   <si>
-    <t>Pharmacy\Reports\TC010VerifyPharmacyDashboard.py</t>
-  </si>
-  <si>
     <t>TC013</t>
   </si>
   <si>
@@ -126,15 +129,6 @@
     <t>TC016</t>
   </si>
   <si>
-    <t>TC017</t>
-  </si>
-  <si>
-    <t>TC018</t>
-  </si>
-  <si>
-    <t>TC019</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -168,14 +162,26 @@
     <t>MPH</t>
   </si>
   <si>
-    <t>Dispensary\TC001CreateDispensarySale.py</t>
+    <t>Patient\TC001PatientRegistrationPrintHealthCard.py</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Billing\IPbilling\TC001IPbillingCalculationCash.py</t>
+  </si>
+  <si>
+    <t>Incentive\TC001VerifyTransactionReport.py</t>
+  </si>
+  <si>
+    <t>TC015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +193,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -230,13 +243,72 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -244,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -252,11 +324,234 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -272,6 +567,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C40A90FB-9DD6-4265-873B-9DAFE274F7FB}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="9">
+  <autoFilter ref="A1:H17" xr:uid="{C40A90FB-9DD6-4265-873B-9DAFE274F7FB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C8A74DD7-2450-4182-975A-6FDCD882140A}" name="TestCaseName" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8FCE56A9-AE8C-4BF5-BB69-0034D3032720}" name="Status" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{2C05D5D5-4377-4DE7-9C97-AD92C6E2CEFE}" name="Plan" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{19A91B5B-5E37-4A83-BEEB-A668A008D096}" name="Run No." dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{BFD089D0-F098-4730-9FFA-876C92D9F7EA}" name="TC No." dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4CD911D4-A901-49F5-AB7B-134E056ECFF5}" name="Bug" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{7D523A1E-78CC-4E9F-8867-DB63106AB10F}" name="Manual Status" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{A14658DF-75EF-42D9-B7CC-EE0BFCCEE785}" name="Env" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,24 +848,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.61328125" customWidth="1"/>
+    <col min="2" max="2" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.296875" customWidth="1"/>
+    <col min="5" max="5" width="8.7421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.8125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -563,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -572,18 +885,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -596,38 +909,38 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
+      <c r="H3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -636,20 +949,20 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
+      <c r="H4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -658,20 +971,20 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>49</v>
+      <c r="H5" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -680,20 +993,20 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
+      <c r="H6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -702,271 +1015,252 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
+      <c r="H7" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
+      <c r="H8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
+      <c r="H11" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
+      <c r="H12" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
+      <c r="H13" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>48</v>
+      <c r="H17" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>